--- a/biology/Médecine/Jean-Baptiste_Laumonier/Jean-Baptiste_Laumonier.xlsx
+++ b/biology/Médecine/Jean-Baptiste_Laumonier/Jean-Baptiste_Laumonier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Philippe Nicolas René Laumonier, né à Lisieux le 30 juillet 1749 et mort à Rouen le 10 janvier 1818, est un chirurgien français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, il épouse à Lisieux Marie-Anne Sainte Thouret[1], sœur du médecin Michel-Augustin Thouret (1748-1810) et de Jacques-Guillaume Thouret (1746-1794), avocat et député du tiers-état de Rouen aux États généraux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, il épouse à Lisieux Marie-Anne Sainte Thouret, sœur du médecin Michel-Augustin Thouret (1748-1810) et de Jacques-Guillaume Thouret (1746-1794), avocat et député du tiers-état de Rouen aux États généraux.
 Laumonier devient chirurgien en chef de l’Hôtel-Dieu de Rouen vers 1785 et correspondant de l’Institut dans la section d’anatomie et de zoologie.
 Le pavillon où il loge à partir de 1784 est l'actuel musée Flaubert et d'histoire de la médecine.
 Il a laissé des pièces anatomiques conservées au musée d’Orfila, au muséum de Rouen et à la faculté de médecine de Montpellier. Son habileté en ce genre fait créer à Rouen, au commencement du XIXe siècle, une école destinée à l’enseignement de l’art des préparations anatomiques modelées en cire, qui prend le nom d’« École de Rouen ».
